--- a/table-example-excel/protocol-id-allocation.xlsx
+++ b/table-example-excel/protocol-id-allocation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="table attribute" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,7 +38,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>table name</t>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>char[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>child table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>packet struction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log-packet-struction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>column name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">table name </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -46,55 +86,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>child table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>packet struction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>log-packet-struction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">attribute name </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attribute value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>column name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>column value type</t>
+    <t>column type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>column description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -471,20 +467,14 @@
     <col min="3" max="3" width="56.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -496,56 +486,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -582,7 +576,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -596,7 +590,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
